--- a/신규 건물/신규 건물.xlsx
+++ b/신규 건물/신규 건물.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="강화소" sheetId="2" r:id="rId1"/>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1단계 시간(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2단계 시간(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,6 +309,10 @@
     <t>단, 랜덤으로 걸린 유닛에 2단계 강화된 영웅 유닛이 존재할 경우 1단계 강화만 가능합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1,2단계 시간(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -369,12 +369,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -426,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -455,15 +461,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,6 +473,16 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -513,7 +520,7 @@
         <xdr:cNvPr id="2" name="순서도: 수행의 시작/종료 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAE559F1-82DD-4B19-804F-A6D11833528E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE559F1-82DD-4B19-804F-A6D11833528E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -687,7 +694,7 @@
         <xdr:cNvPr id="3" name="연결선: 꺾임 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD828C4-9392-4AA8-ACF1-44B8A9BED52B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD828C4-9392-4AA8-ACF1-44B8A9BED52B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -746,7 +753,7 @@
         <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3082580B-3586-49B5-A143-2C392E0D1099}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3082580B-3586-49B5-A143-2C392E0D1099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -803,7 +810,7 @@
         <xdr:cNvPr id="5" name="순서도: 판단 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D592FF9E-D9B9-4E13-9918-186FF4B746E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D592FF9E-D9B9-4E13-9918-186FF4B746E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +1008,7 @@
         <xdr:cNvPr id="6" name="순서도: 판단 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17A498E0-075F-4403-94A1-0CA92D03DA02}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A498E0-075F-4403-94A1-0CA92D03DA02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1199,7 +1206,7 @@
         <xdr:cNvPr id="7" name="순서도: 판단 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2651662-BFE6-47B0-B3B0-5B78BB7D2AD4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2651662-BFE6-47B0-B3B0-5B78BB7D2AD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1412,7 @@
         <xdr:cNvPr id="8" name="연결선: 꺾임 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B25A2F0-95C6-45BB-A333-8E72F82F53BF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B25A2F0-95C6-45BB-A333-8E72F82F53BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1472,7 @@
         <xdr:cNvPr id="9" name="순서도: 처리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7389140-14E8-4FB6-9856-F7F32692C9E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7389140-14E8-4FB6-9856-F7F32692C9E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1686,7 @@
         <xdr:cNvPr id="10" name="직선 화살표 연결선 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97DDA7C8-31B8-43D4-8809-117D0F1F6649}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DDA7C8-31B8-43D4-8809-117D0F1F6649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1746,7 @@
         <xdr:cNvPr id="11" name="순서도: 처리 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CF6D332-FFA3-4D60-AA7F-7C6DD5BDBB53}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF6D332-FFA3-4D60-AA7F-7C6DD5BDBB53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1960,7 @@
         <xdr:cNvPr id="12" name="직선 화살표 연결선 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{370ED4CC-0687-4350-9E56-2351C1FF5C34}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370ED4CC-0687-4350-9E56-2351C1FF5C34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2020,7 @@
         <xdr:cNvPr id="13" name="연결선: 꺾임 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DFF96DF-AD26-44C7-A917-5A94C2C35B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFF96DF-AD26-44C7-A917-5A94C2C35B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2080,7 @@
         <xdr:cNvPr id="14" name="연결선: 꺾임 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34789A08-B189-44E8-A070-77C48024A6A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34789A08-B189-44E8-A070-77C48024A6A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2142,7 @@
         <xdr:cNvPr id="15" name="순서도: 처리 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6248038B-ED6F-4263-BA05-06FEAC9C7D4F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6248038B-ED6F-4263-BA05-06FEAC9C7D4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2356,7 @@
         <xdr:cNvPr id="16" name="순서도: 처리 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34CAFA9C-C7EF-4ACA-B276-4645F40A5AB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CAFA9C-C7EF-4ACA-B276-4645F40A5AB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2570,7 @@
         <xdr:cNvPr id="17" name="연결선: 꺾임 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7701D94-20FF-4295-8A27-184457986C84}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7701D94-20FF-4295-8A27-184457986C84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2630,7 @@
         <xdr:cNvPr id="18" name="순서도: 판단 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC4C2FFD-244F-4B73-8C29-1B7589FE0C1B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4C2FFD-244F-4B73-8C29-1B7589FE0C1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,7 +2828,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1CEA06D-0688-4829-AEF3-3C1298DF7843}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CEA06D-0688-4829-AEF3-3C1298DF7843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2881,7 +2888,7 @@
         <xdr:cNvPr id="20" name="연결선: 꺾임 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBA65817-5F86-443C-B716-2BC1304315E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA65817-5F86-443C-B716-2BC1304315E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +2950,7 @@
         <xdr:cNvPr id="21" name="순서도: 수행의 시작/종료 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAE559F1-82DD-4B19-804F-A6D11833528E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE559F1-82DD-4B19-804F-A6D11833528E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3124,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3082580B-3586-49B5-A143-2C392E0D1099}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3082580B-3586-49B5-A143-2C392E0D1099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3174,7 +3181,7 @@
         <xdr:cNvPr id="23" name="순서도: 판단 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D592FF9E-D9B9-4E13-9918-186FF4B746E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D592FF9E-D9B9-4E13-9918-186FF4B746E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3364,7 +3371,7 @@
         <xdr:cNvPr id="24" name="연결선: 꺾임 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B25A2F0-95C6-45BB-A333-8E72F82F53BF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B25A2F0-95C6-45BB-A333-8E72F82F53BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3424,7 +3431,7 @@
         <xdr:cNvPr id="25" name="순서도: 처리 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7389140-14E8-4FB6-9856-F7F32692C9E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7389140-14E8-4FB6-9856-F7F32692C9E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3598,7 +3605,7 @@
         <xdr:cNvPr id="26" name="직선 화살표 연결선 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97DDA7C8-31B8-43D4-8809-117D0F1F6649}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DDA7C8-31B8-43D4-8809-117D0F1F6649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3658,7 +3665,7 @@
         <xdr:cNvPr id="27" name="순서도: 처리 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6248038B-ED6F-4263-BA05-06FEAC9C7D4F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6248038B-ED6F-4263-BA05-06FEAC9C7D4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3840,7 +3847,7 @@
         <xdr:cNvPr id="28" name="순서도: 처리 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C8662C7-0387-4E10-872F-49A76278AB55}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8662C7-0387-4E10-872F-49A76278AB55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4014,7 +4021,7 @@
         <xdr:cNvPr id="29" name="직선 화살표 연결선 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B4ADD9B-2947-477B-877B-C2721569CC8B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4ADD9B-2947-477B-877B-C2721569CC8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4071,7 +4078,7 @@
         <xdr:cNvPr id="30" name="순서도: 처리 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE58A18-F059-4B43-A788-A0B4F3E15B35}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE58A18-F059-4B43-A788-A0B4F3E15B35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4245,7 +4252,7 @@
         <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9370EC0F-1DDC-4C5A-89F1-DEC9A0006051}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9370EC0F-1DDC-4C5A-89F1-DEC9A0006051}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4302,7 +4309,7 @@
         <xdr:cNvPr id="32" name="순서도: 판단 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0703AD9-3ADB-4CAB-9FA4-92EEAF00155B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0703AD9-3ADB-4CAB-9FA4-92EEAF00155B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4492,7 +4499,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2934E1D2-F092-4E71-81DE-B332C5AED77A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2934E1D2-F092-4E71-81DE-B332C5AED77A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4552,7 +4559,7 @@
         <xdr:cNvPr id="34" name="순서도: 처리 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85CDED73-4EBB-4A05-8C83-CE1C5AF40FD1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CDED73-4EBB-4A05-8C83-CE1C5AF40FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4726,7 +4733,7 @@
         <xdr:cNvPr id="35" name="직선 화살표 연결선 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4844022E-BA1E-41E0-96FB-A9A8F02EB50C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4844022E-BA1E-41E0-96FB-A9A8F02EB50C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7858,7 +7865,7 @@
           <xdr:cNvPr id="128" name="그래픽 3" descr="렌치">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B4000000}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7873,7 +7880,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId6"/>
+                <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7896,7 +7903,7 @@
           <xdr:cNvPr id="129" name="그림 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B6000000}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7930,7 +7937,7 @@
           <xdr:cNvPr id="130" name="곱하기 기호 180">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B5000000}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12862,7 +12869,7 @@
         <xdr:cNvPr id="24" name="순서도: 수행의 시작/종료 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAE559F1-82DD-4B19-804F-A6D11833528E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE559F1-82DD-4B19-804F-A6D11833528E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13036,7 +13043,7 @@
         <xdr:cNvPr id="25" name="연결선: 꺾임 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD828C4-9392-4AA8-ACF1-44B8A9BED52B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD828C4-9392-4AA8-ACF1-44B8A9BED52B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13095,7 +13102,7 @@
         <xdr:cNvPr id="26" name="직선 화살표 연결선 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3082580B-3586-49B5-A143-2C392E0D1099}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3082580B-3586-49B5-A143-2C392E0D1099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13152,7 +13159,7 @@
         <xdr:cNvPr id="27" name="순서도: 판단 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D592FF9E-D9B9-4E13-9918-186FF4B746E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D592FF9E-D9B9-4E13-9918-186FF4B746E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13358,7 +13365,7 @@
         <xdr:cNvPr id="28" name="순서도: 판단 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2651662-BFE6-47B0-B3B0-5B78BB7D2AD4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2651662-BFE6-47B0-B3B0-5B78BB7D2AD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13554,7 +13561,7 @@
         <xdr:cNvPr id="29" name="순서도: 처리 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04A99545-55E5-4949-B772-9BAA8754820C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A99545-55E5-4949-B772-9BAA8754820C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13728,7 +13735,7 @@
         <xdr:cNvPr id="30" name="순서도: 처리 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ABBDC34-8581-4735-8390-1813FB2D1053}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABBDC34-8581-4735-8390-1813FB2D1053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13905,7 +13912,7 @@
         <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A02B4E64-B55E-4178-AE6B-4144987D522E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02B4E64-B55E-4178-AE6B-4144987D522E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13962,7 +13969,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D3BDDAE-A80A-441A-BB80-E2CB7D97746D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3BDDAE-A80A-441A-BB80-E2CB7D97746D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14022,7 +14029,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5443FE45-0305-41C2-952F-228DA6EF33B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5443FE45-0305-41C2-952F-228DA6EF33B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14082,7 +14089,7 @@
         <xdr:cNvPr id="34" name="순서도: 처리 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98928C6C-3ACE-46B3-BA0C-956680D48444}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98928C6C-3ACE-46B3-BA0C-956680D48444}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14296,7 +14303,7 @@
         <xdr:cNvPr id="35" name="순서도: 처리 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AA36A49-CC53-4210-A745-841E43DB26EA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA36A49-CC53-4210-A745-841E43DB26EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14478,7 +14485,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAC4118D-FED1-47B0-AFE5-1C287413BBD9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC4118D-FED1-47B0-AFE5-1C287413BBD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14535,7 +14542,7 @@
         <xdr:cNvPr id="37" name="TextBox 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE8CEC2C-E02F-463D-9467-4BDE17F9909D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8CEC2C-E02F-463D-9467-4BDE17F9909D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14680,7 +14687,7 @@
         <xdr:cNvPr id="38" name="TextBox 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB18A6E3-C905-4D37-86FE-558807B476BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB18A6E3-C905-4D37-86FE-558807B476BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14825,7 +14832,7 @@
         <xdr:cNvPr id="39" name="순서도: 판단 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F15EB97-83F8-4555-BBBC-0B2321539AC6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F15EB97-83F8-4555-BBBC-0B2321539AC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15015,7 +15022,7 @@
         <xdr:cNvPr id="40" name="연결선: 꺾임 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8434EF33-6640-4808-9883-E8F170CBE6B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8434EF33-6640-4808-9883-E8F170CBE6B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15072,7 +15079,7 @@
         <xdr:cNvPr id="41" name="연결선: 꺾임 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{053DCF50-BECE-4C24-84EC-D730E797AE39}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053DCF50-BECE-4C24-84EC-D730E797AE39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15129,7 +15136,7 @@
         <xdr:cNvPr id="42" name="순서도: 처리 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC12CE03-2C82-44A1-97BB-531CF5B00333}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC12CE03-2C82-44A1-97BB-531CF5B00333}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15303,7 +15310,7 @@
         <xdr:cNvPr id="43" name="순서도: 처리 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{014793DD-4B0E-4A27-BE42-DAB4250EF34C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014793DD-4B0E-4A27-BE42-DAB4250EF34C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15477,7 +15484,7 @@
         <xdr:cNvPr id="44" name="연결선: 꺾임 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6DBF201-4E96-4F45-AF1C-A4ABCBC1EC7D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6DBF201-4E96-4F45-AF1C-A4ABCBC1EC7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15537,7 +15544,7 @@
         <xdr:cNvPr id="45" name="직선 화살표 연결선 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1FB3292-076F-449F-831D-47C7C6C2D1E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FB3292-076F-449F-831D-47C7C6C2D1E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18234,7 +18241,7 @@
           <xdr:cNvPr id="124" name="화살표: 위쪽 177">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B2000000}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18373,7 +18380,7 @@
           <xdr:cNvPr id="125" name="그래픽 3" descr="렌치">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B4000000}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18388,7 +18395,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId4"/>
+                <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -18411,7 +18418,7 @@
           <xdr:cNvPr id="126" name="그림 125">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B6000000}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18445,7 +18452,7 @@
           <xdr:cNvPr id="127" name="곱하기 기호 180">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B5000000}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25281,15 +25288,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="11" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25315,17 +25323,17 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="23" t="s">
         <v>28</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>25</v>
@@ -25356,16 +25364,16 @@
       <c r="G2" s="1">
         <v>3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="23">
         <v>1.3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="23">
         <v>2</v>
       </c>
       <c r="J2" s="4">
         <v>10</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="23">
         <v>50</v>
       </c>
       <c r="L2" s="5">
@@ -25417,22 +25425,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -25475,36 +25483,36 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -25517,10 +25525,10 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -25653,7 +25661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -25905,7 +25913,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -25931,7 +25939,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>130</v>
@@ -25991,11 +25999,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -26003,78 +26011,78 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -26086,10 +26094,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -26101,7 +26109,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -26249,106 +26257,106 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J21" s="10"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J22" s="10"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="10"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J23" s="10"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="19"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="16"/>
       <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J24" s="10"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J25" s="10"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="10"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J26" s="10"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="17"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="10"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J27" s="10"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="17"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J28" s="10"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J29" s="10"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J30" s="10"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J31" s="10"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
       <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J32" s="10"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="10"/>
     </row>
     <row r="33" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J33" s="10"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
       <c r="O33" s="10"/>
     </row>
     <row r="34" spans="10:15" x14ac:dyDescent="0.3">

--- a/신규 건물/신규 건물.xlsx
+++ b/신규 건물/신규 건물.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>이름</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>건설시간</t>
-  </si>
-  <si>
-    <t>비용</t>
   </si>
   <si>
     <t>필요건물</t>
@@ -134,18 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1단계 비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2단계 비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닛 강화 비용은 해당 유닛 비용 * 각 단계별 비용입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>치료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +172,6 @@
   </si>
   <si>
     <t>치료 시간(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2단계 시간(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,6 +294,10 @@
     <t>1,2단계 시간(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>강화 비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -369,18 +354,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -432,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -482,7 +461,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -520,7 +498,7 @@
         <xdr:cNvPr id="2" name="순서도: 수행의 시작/종료 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE559F1-82DD-4B19-804F-A6D11833528E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAE559F1-82DD-4B19-804F-A6D11833528E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -694,7 +672,7 @@
         <xdr:cNvPr id="3" name="연결선: 꺾임 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD828C4-9392-4AA8-ACF1-44B8A9BED52B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD828C4-9392-4AA8-ACF1-44B8A9BED52B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -753,7 +731,7 @@
         <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3082580B-3586-49B5-A143-2C392E0D1099}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3082580B-3586-49B5-A143-2C392E0D1099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -810,7 +788,7 @@
         <xdr:cNvPr id="5" name="순서도: 판단 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D592FF9E-D9B9-4E13-9918-186FF4B746E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D592FF9E-D9B9-4E13-9918-186FF4B746E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1008,7 +986,7 @@
         <xdr:cNvPr id="6" name="순서도: 판단 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A498E0-075F-4403-94A1-0CA92D03DA02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17A498E0-075F-4403-94A1-0CA92D03DA02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1184,7 @@
         <xdr:cNvPr id="7" name="순서도: 판단 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2651662-BFE6-47B0-B3B0-5B78BB7D2AD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2651662-BFE6-47B0-B3B0-5B78BB7D2AD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1390,7 @@
         <xdr:cNvPr id="8" name="연결선: 꺾임 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B25A2F0-95C6-45BB-A333-8E72F82F53BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B25A2F0-95C6-45BB-A333-8E72F82F53BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1450,7 @@
         <xdr:cNvPr id="9" name="순서도: 처리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7389140-14E8-4FB6-9856-F7F32692C9E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7389140-14E8-4FB6-9856-F7F32692C9E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1664,7 @@
         <xdr:cNvPr id="10" name="직선 화살표 연결선 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DDA7C8-31B8-43D4-8809-117D0F1F6649}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97DDA7C8-31B8-43D4-8809-117D0F1F6649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1724,7 @@
         <xdr:cNvPr id="11" name="순서도: 처리 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF6D332-FFA3-4D60-AA7F-7C6DD5BDBB53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CF6D332-FFA3-4D60-AA7F-7C6DD5BDBB53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1938,7 @@
         <xdr:cNvPr id="12" name="직선 화살표 연결선 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370ED4CC-0687-4350-9E56-2351C1FF5C34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{370ED4CC-0687-4350-9E56-2351C1FF5C34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +1998,7 @@
         <xdr:cNvPr id="13" name="연결선: 꺾임 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFF96DF-AD26-44C7-A917-5A94C2C35B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DFF96DF-AD26-44C7-A917-5A94C2C35B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,7 +2058,7 @@
         <xdr:cNvPr id="14" name="연결선: 꺾임 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34789A08-B189-44E8-A070-77C48024A6A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34789A08-B189-44E8-A070-77C48024A6A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2120,7 @@
         <xdr:cNvPr id="15" name="순서도: 처리 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6248038B-ED6F-4263-BA05-06FEAC9C7D4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6248038B-ED6F-4263-BA05-06FEAC9C7D4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2334,7 @@
         <xdr:cNvPr id="16" name="순서도: 처리 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CAFA9C-C7EF-4ACA-B276-4645F40A5AB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34CAFA9C-C7EF-4ACA-B276-4645F40A5AB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2548,7 @@
         <xdr:cNvPr id="17" name="연결선: 꺾임 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7701D94-20FF-4295-8A27-184457986C84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7701D94-20FF-4295-8A27-184457986C84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +2608,7 @@
         <xdr:cNvPr id="18" name="순서도: 판단 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4C2FFD-244F-4B73-8C29-1B7589FE0C1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC4C2FFD-244F-4B73-8C29-1B7589FE0C1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2806,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CEA06D-0688-4829-AEF3-3C1298DF7843}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1CEA06D-0688-4829-AEF3-3C1298DF7843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +2866,7 @@
         <xdr:cNvPr id="20" name="연결선: 꺾임 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA65817-5F86-443C-B716-2BC1304315E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBA65817-5F86-443C-B716-2BC1304315E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,7 +2928,7 @@
         <xdr:cNvPr id="21" name="순서도: 수행의 시작/종료 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE559F1-82DD-4B19-804F-A6D11833528E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAE559F1-82DD-4B19-804F-A6D11833528E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3124,7 +3102,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3082580B-3586-49B5-A143-2C392E0D1099}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3082580B-3586-49B5-A143-2C392E0D1099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3181,7 +3159,7 @@
         <xdr:cNvPr id="23" name="순서도: 판단 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D592FF9E-D9B9-4E13-9918-186FF4B746E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D592FF9E-D9B9-4E13-9918-186FF4B746E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3371,7 +3349,7 @@
         <xdr:cNvPr id="24" name="연결선: 꺾임 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B25A2F0-95C6-45BB-A333-8E72F82F53BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B25A2F0-95C6-45BB-A333-8E72F82F53BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3431,7 +3409,7 @@
         <xdr:cNvPr id="25" name="순서도: 처리 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7389140-14E8-4FB6-9856-F7F32692C9E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7389140-14E8-4FB6-9856-F7F32692C9E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3605,7 +3583,7 @@
         <xdr:cNvPr id="26" name="직선 화살표 연결선 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DDA7C8-31B8-43D4-8809-117D0F1F6649}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97DDA7C8-31B8-43D4-8809-117D0F1F6649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3665,7 +3643,7 @@
         <xdr:cNvPr id="27" name="순서도: 처리 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6248038B-ED6F-4263-BA05-06FEAC9C7D4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6248038B-ED6F-4263-BA05-06FEAC9C7D4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3847,7 +3825,7 @@
         <xdr:cNvPr id="28" name="순서도: 처리 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8662C7-0387-4E10-872F-49A76278AB55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C8662C7-0387-4E10-872F-49A76278AB55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4021,7 +3999,7 @@
         <xdr:cNvPr id="29" name="직선 화살표 연결선 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4ADD9B-2947-477B-877B-C2721569CC8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B4ADD9B-2947-477B-877B-C2721569CC8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4078,7 +4056,7 @@
         <xdr:cNvPr id="30" name="순서도: 처리 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE58A18-F059-4B43-A788-A0B4F3E15B35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE58A18-F059-4B43-A788-A0B4F3E15B35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4252,7 +4230,7 @@
         <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9370EC0F-1DDC-4C5A-89F1-DEC9A0006051}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9370EC0F-1DDC-4C5A-89F1-DEC9A0006051}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4309,7 +4287,7 @@
         <xdr:cNvPr id="32" name="순서도: 판단 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0703AD9-3ADB-4CAB-9FA4-92EEAF00155B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0703AD9-3ADB-4CAB-9FA4-92EEAF00155B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4499,7 +4477,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2934E1D2-F092-4E71-81DE-B332C5AED77A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2934E1D2-F092-4E71-81DE-B332C5AED77A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4559,7 +4537,7 @@
         <xdr:cNvPr id="34" name="순서도: 처리 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CDED73-4EBB-4A05-8C83-CE1C5AF40FD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85CDED73-4EBB-4A05-8C83-CE1C5AF40FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4733,7 +4711,7 @@
         <xdr:cNvPr id="35" name="직선 화살표 연결선 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4844022E-BA1E-41E0-96FB-A9A8F02EB50C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4844022E-BA1E-41E0-96FB-A9A8F02EB50C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7865,7 +7843,7 @@
           <xdr:cNvPr id="128" name="그래픽 3" descr="렌치">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B4000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7880,7 +7858,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId6"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7903,7 +7881,7 @@
           <xdr:cNvPr id="129" name="그림 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7937,7 +7915,7 @@
           <xdr:cNvPr id="130" name="곱하기 기호 180">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B5000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12869,7 +12847,7 @@
         <xdr:cNvPr id="24" name="순서도: 수행의 시작/종료 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE559F1-82DD-4B19-804F-A6D11833528E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAE559F1-82DD-4B19-804F-A6D11833528E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13043,7 +13021,7 @@
         <xdr:cNvPr id="25" name="연결선: 꺾임 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD828C4-9392-4AA8-ACF1-44B8A9BED52B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD828C4-9392-4AA8-ACF1-44B8A9BED52B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13102,7 +13080,7 @@
         <xdr:cNvPr id="26" name="직선 화살표 연결선 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3082580B-3586-49B5-A143-2C392E0D1099}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3082580B-3586-49B5-A143-2C392E0D1099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13159,7 +13137,7 @@
         <xdr:cNvPr id="27" name="순서도: 판단 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D592FF9E-D9B9-4E13-9918-186FF4B746E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D592FF9E-D9B9-4E13-9918-186FF4B746E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13365,7 +13343,7 @@
         <xdr:cNvPr id="28" name="순서도: 판단 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2651662-BFE6-47B0-B3B0-5B78BB7D2AD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2651662-BFE6-47B0-B3B0-5B78BB7D2AD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13561,7 +13539,7 @@
         <xdr:cNvPr id="29" name="순서도: 처리 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A99545-55E5-4949-B772-9BAA8754820C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04A99545-55E5-4949-B772-9BAA8754820C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13735,7 +13713,7 @@
         <xdr:cNvPr id="30" name="순서도: 처리 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABBDC34-8581-4735-8390-1813FB2D1053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ABBDC34-8581-4735-8390-1813FB2D1053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13912,7 +13890,7 @@
         <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02B4E64-B55E-4178-AE6B-4144987D522E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A02B4E64-B55E-4178-AE6B-4144987D522E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13969,7 +13947,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3BDDAE-A80A-441A-BB80-E2CB7D97746D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D3BDDAE-A80A-441A-BB80-E2CB7D97746D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14029,7 +14007,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5443FE45-0305-41C2-952F-228DA6EF33B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5443FE45-0305-41C2-952F-228DA6EF33B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14089,7 +14067,7 @@
         <xdr:cNvPr id="34" name="순서도: 처리 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98928C6C-3ACE-46B3-BA0C-956680D48444}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98928C6C-3ACE-46B3-BA0C-956680D48444}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14303,7 +14281,7 @@
         <xdr:cNvPr id="35" name="순서도: 처리 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA36A49-CC53-4210-A745-841E43DB26EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AA36A49-CC53-4210-A745-841E43DB26EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14485,7 +14463,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC4118D-FED1-47B0-AFE5-1C287413BBD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAC4118D-FED1-47B0-AFE5-1C287413BBD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14542,7 +14520,7 @@
         <xdr:cNvPr id="37" name="TextBox 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8CEC2C-E02F-463D-9467-4BDE17F9909D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE8CEC2C-E02F-463D-9467-4BDE17F9909D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14687,7 +14665,7 @@
         <xdr:cNvPr id="38" name="TextBox 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB18A6E3-C905-4D37-86FE-558807B476BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB18A6E3-C905-4D37-86FE-558807B476BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14832,7 +14810,7 @@
         <xdr:cNvPr id="39" name="순서도: 판단 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F15EB97-83F8-4555-BBBC-0B2321539AC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F15EB97-83F8-4555-BBBC-0B2321539AC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15022,7 +15000,7 @@
         <xdr:cNvPr id="40" name="연결선: 꺾임 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8434EF33-6640-4808-9883-E8F170CBE6B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8434EF33-6640-4808-9883-E8F170CBE6B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15079,7 +15057,7 @@
         <xdr:cNvPr id="41" name="연결선: 꺾임 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053DCF50-BECE-4C24-84EC-D730E797AE39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{053DCF50-BECE-4C24-84EC-D730E797AE39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15136,7 +15114,7 @@
         <xdr:cNvPr id="42" name="순서도: 처리 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC12CE03-2C82-44A1-97BB-531CF5B00333}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC12CE03-2C82-44A1-97BB-531CF5B00333}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15310,7 +15288,7 @@
         <xdr:cNvPr id="43" name="순서도: 처리 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014793DD-4B0E-4A27-BE42-DAB4250EF34C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{014793DD-4B0E-4A27-BE42-DAB4250EF34C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15484,7 +15462,7 @@
         <xdr:cNvPr id="44" name="연결선: 꺾임 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6DBF201-4E96-4F45-AF1C-A4ABCBC1EC7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6DBF201-4E96-4F45-AF1C-A4ABCBC1EC7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15544,7 +15522,7 @@
         <xdr:cNvPr id="45" name="직선 화살표 연결선 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FB3292-076F-449F-831D-47C7C6C2D1E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1FB3292-076F-449F-831D-47C7C6C2D1E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18241,7 +18219,7 @@
           <xdr:cNvPr id="124" name="화살표: 위쪽 177">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B2000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18380,7 +18358,7 @@
           <xdr:cNvPr id="125" name="그래픽 3" descr="렌치">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B4000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18395,7 +18373,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -18418,7 +18396,7 @@
           <xdr:cNvPr id="126" name="그림 125">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18452,7 +18430,7 @@
           <xdr:cNvPr id="127" name="곱하기 기호 180">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B5000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0100-0000B5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25286,22 +25264,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25320,31 +25298,22 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="G1" s="4" t="s">
+        <v>67</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>27</v>
+      <c r="H1" s="4" t="s">
+        <v>66</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>28</v>
+      <c r="I1" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>180</v>
@@ -25352,167 +25321,153 @@
       <c r="C2" s="1">
         <v>40</v>
       </c>
-      <c r="D2" s="1">
-        <v>80</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="H2" s="23">
-        <v>1.3</v>
+      <c r="G2" s="4">
+        <v>100</v>
       </c>
-      <c r="I2" s="23">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="H2" s="4">
         <v>10</v>
       </c>
-      <c r="K2" s="23">
-        <v>50</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="I2" s="5">
         <v>0.2</v>
       </c>
-      <c r="M2" s="5">
+      <c r="J2" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>24</v>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>29</v>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>67</v>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -25525,10 +25480,10 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -25559,11 +25514,11 @@
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M2" s="6"/>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
@@ -25913,33 +25868,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <v>130</v>
@@ -25954,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1">
         <v>2</v>
@@ -25974,36 +25929,36 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -26011,78 +25966,78 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D13" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -26094,10 +26049,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -26109,7 +26064,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -26137,7 +26092,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
